--- a/remap_ville_plugin/case_study_inputs_template.xlsx
+++ b/remap_ville_plugin/case_study_inputs_template.xlsx
@@ -5,20 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Desktop\TEST_UT_REDUCE\echallens_new\2020_planned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623A421E-FC2D-497F-BBF4-D3DAC851135F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9BFA3-3666-4FBB-9434-0235F6595EA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{6E858B89-FF85-40FB-9053-BAF240D29A5F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="8" xr2:uid="{6E858B89-FF85-40FB-9053-BAF240D29A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="RRL_BAU" sheetId="1" r:id="rId1"/>
     <sheet name="RRL_PUN" sheetId="2" r:id="rId2"/>
     <sheet name="RRL_DGT" sheetId="3" r:id="rId3"/>
-    <sheet name="SURB_BAU" sheetId="4" r:id="rId4"/>
-    <sheet name="SURB_PUN" sheetId="6" r:id="rId5"/>
-    <sheet name="SURB_DGT" sheetId="5" r:id="rId6"/>
+    <sheet name="URB_BAU" sheetId="7" r:id="rId4"/>
+    <sheet name="URB_PUN" sheetId="8" r:id="rId5"/>
+    <sheet name="URB_DGT" sheetId="9" r:id="rId6"/>
+    <sheet name="SURB_BAU" sheetId="4" r:id="rId7"/>
+    <sheet name="SURB_PUN" sheetId="6" r:id="rId8"/>
+    <sheet name="SURB_DGT" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,21 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
-  <si>
-    <t>RR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="11">
   <si>
     <t>MULTI_RES_PLANNED</t>
   </si>
   <si>
     <t>additional_population</t>
-  </si>
-  <si>
-    <t>current_SFH_occupant_density</t>
-  </si>
-  <si>
-    <t>future_occupant_density</t>
   </si>
   <si>
     <t>USES_UNTOUCH</t>
@@ -68,12 +62,6 @@
     <t>building_height_limit</t>
   </si>
   <si>
-    <t>min_additional_floors</t>
-  </si>
-  <si>
-    <t>max_additional_floors</t>
-  </si>
-  <si>
     <t>future_MFH_density</t>
   </si>
   <si>
@@ -86,13 +74,7 @@
     <t>SINGLE_RES</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>additional_population_to_base_year</t>
   </si>
 </sst>
 </file>
@@ -446,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FF5405-682E-4255-8084-F144722946E1}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
@@ -468,47 +450,46 @@
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -518,16 +499,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9D6EAD-38DE-4BCD-BFCA-59C28CE9A0E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2040</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2060</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -536,22 +566,278 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A447E-F784-4BF5-BC7E-8C16760D2DD5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2040</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2060</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A311F27-0B5D-44B4-9838-3720984998D0}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC51396-2904-492E-BE77-29EE2072B7C3}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2040</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2060</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6108355-EF52-450E-8C8A-350F38FC8FE9}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2040</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2060</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF15031-E7E5-47E4-9B0E-81923CEC3822}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2040</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2060</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A311F27-0B5D-44B4-9838-3720984998D0}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,43 +851,38 @@
     <col min="7" max="7" width="25.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
@@ -615,10 +896,10 @@
         <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -629,14 +910,8 @@
       <c r="I2" s="1">
         <v>24</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -650,10 +925,10 @@
         <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -663,12 +938,6 @@
       </c>
       <c r="I3" s="1">
         <v>24</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -676,12 +945,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F719771-8A9C-4B22-83FA-5E3C05735F9F}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,43 +964,38 @@
     <col min="7" max="7" width="25.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
@@ -745,10 +1009,10 @@
         <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -759,14 +1023,8 @@
       <c r="I2" s="1">
         <v>36</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -780,10 +1038,10 @@
         <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -793,12 +1051,6 @@
       </c>
       <c r="I3" s="1">
         <v>36</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -806,65 +1058,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2019A424-9D0C-4B12-A16D-B42DDE31EF8D}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
@@ -878,10 +1122,10 @@
         <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
         <v>0.05</v>
@@ -892,14 +1136,8 @@
       <c r="I2" s="1">
         <v>36</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -913,25 +1151,19 @@
         <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1">
         <v>1920</v>
       </c>
       <c r="I3" s="1">
         <v>36</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/remap_ville_plugin/case_study_inputs_template.xlsx
+++ b/remap_ville_plugin/case_study_inputs_template.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Desktop\TEST_UT_REDUCE\echallens_new\2020_planned\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9BFA3-3666-4FBB-9434-0235F6595EA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3DB1AA-76A8-4A57-ABF0-968E4D7C20E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="8" xr2:uid="{6E858B89-FF85-40FB-9053-BAF240D29A5F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="8" xr2:uid="{6E858B89-FF85-40FB-9053-BAF240D29A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="RRL_BAU" sheetId="1" r:id="rId1"/>
     <sheet name="RRL_PUN" sheetId="2" r:id="rId2"/>
     <sheet name="RRL_DGT" sheetId="3" r:id="rId3"/>
     <sheet name="URB_BAU" sheetId="7" r:id="rId4"/>
-    <sheet name="URB_PUN" sheetId="8" r:id="rId5"/>
-    <sheet name="URB_DGT" sheetId="9" r:id="rId6"/>
+    <sheet name="URB_DGT" sheetId="9" r:id="rId5"/>
+    <sheet name="URB_PUN" sheetId="8" r:id="rId6"/>
     <sheet name="SURB_BAU" sheetId="4" r:id="rId7"/>
     <sheet name="SURB_PUN" sheetId="6" r:id="rId8"/>
     <sheet name="SURB_DGT" sheetId="5" r:id="rId9"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="12">
   <si>
     <t>MULTI_RES_PLANNED</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>OFFICE_to_MULTI_RES_ratio</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FF5405-682E-4255-8084-F144722946E1}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,7 +453,7 @@
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -473,19 +476,22 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9D6EAD-38DE-4BCD-BFCA-59C28CE9A0E4}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,7 +524,7 @@
     <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -541,19 +547,22 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A447E-F784-4BF5-BC7E-8C16760D2DD5}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +594,7 @@
     <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -608,19 +617,22 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -633,7 +645,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC51396-2904-492E-BE77-29EE2072B7C3}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -642,17 +654,17 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -675,23 +687,80 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
+        <f>44180-34285</f>
+        <v>9895</v>
+      </c>
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1">
+        <v>120</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1920</v>
+      </c>
+      <c r="J2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="B3" s="1">
+        <f>47500-34285</f>
+        <v>13215</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1920</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -699,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6108355-EF52-450E-8C8A-350F38FC8FE9}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF15031-E7E5-47E4-9B0E-81923CEC3822}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -709,17 +778,17 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -742,23 +811,80 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <f>38020-34285</f>
+        <v>3735</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1">
+        <v>120</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1920</v>
+      </c>
+      <c r="J2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="B3" s="1">
+        <f>36820-34285</f>
+        <v>2535</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1920</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,8 +892,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF15031-E7E5-47E4-9B0E-81923CEC3822}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6108355-EF52-450E-8C8A-350F38FC8FE9}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -776,17 +902,17 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -809,23 +935,80 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
+        <f>41200-34285</f>
+        <v>6915</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1">
+        <v>120</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1920</v>
+      </c>
+      <c r="J2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="B3" s="1">
+        <f>42280-32485</f>
+        <v>9795</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1920</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -834,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A311F27-0B5D-44B4-9838-3720984998D0}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -848,12 +1031,12 @@
     <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,13 +1059,16 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
@@ -904,14 +1090,17 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>1920</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -933,10 +1122,13 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1920</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>24</v>
       </c>
     </row>
@@ -947,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F719771-8A9C-4B22-83FA-5E3C05735F9F}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,11 +1154,12 @@
     <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.08984375" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,13 +1182,16 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
@@ -1017,14 +1213,17 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>1920</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -1046,10 +1245,13 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1920</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>36</v>
       </c>
     </row>
@@ -1060,26 +1262,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2019A424-9D0C-4B12-A16D-B42DDE31EF8D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,13 +1304,16 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2040</v>
       </c>
@@ -1130,14 +1335,17 @@
       <c r="G2" s="2">
         <v>0.05</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>1920</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2060</v>
       </c>
@@ -1159,10 +1367,13 @@
       <c r="G3" s="2">
         <v>0.1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1920</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>36</v>
       </c>
     </row>

--- a/remap_ville_plugin/case_study_inputs_template.xlsx
+++ b/remap_ville_plugin/case_study_inputs_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3DB1AA-76A8-4A57-ABF0-968E4D7C20E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2793C-D780-4E10-ACBA-F1C7EE1B7C81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="8" xr2:uid="{6E858B89-FF85-40FB-9053-BAF240D29A5F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="2" xr2:uid="{6E858B89-FF85-40FB-9053-BAF240D29A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="RRL_BAU" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="12">
   <si>
     <t>MULTI_RES_PLANNED</t>
   </si>
@@ -113,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +435,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,49 +454,101 @@
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2040</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="B2">
+        <v>-114</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1920</v>
+      </c>
+      <c r="J2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2060</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="B3">
+        <v>-224</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1920</v>
+      </c>
+      <c r="J3">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -508,7 +561,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,49 +577,101 @@
     <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2040</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="B2">
+        <v>-29</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1920</v>
+      </c>
+      <c r="J2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2060</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="B3">
+        <v>-146</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1920</v>
+      </c>
+      <c r="J3">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -577,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A447E-F784-4BF5-BC7E-8C16760D2DD5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,49 +699,103 @@
     <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2040</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="B2">
+        <f>1640-1526</f>
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1920</v>
+      </c>
+      <c r="J2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2060</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="B3">
+        <f>1755-1526</f>
+        <v>229</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1920</v>
+      </c>
+      <c r="J3">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2019A424-9D0C-4B12-A16D-B42DDE31EF8D}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
